--- a/PRESUPUESTO.xlsx
+++ b/PRESUPUESTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nacho\Desktop\BodegaPerrote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1F0491-4EF8-47C5-B733-088508A33436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EAD6C2-C06F-41E6-B9A3-B8E147D7E6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4FB3CB85-4D69-4821-9E98-7229A54ACA8E}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Estructuracion Web ( HTML5) :</t>
   </si>
   <si>
-    <t>Diseño Grafico Wen ( CSS/SASS) :</t>
-  </si>
-  <si>
     <t>Bodegas Perrote</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
       </rPr>
       <t xml:space="preserve">                                                                                                          * El pago se ralizará 50% al iniciar el proyecto y 50% al finalizar.                       * Una vez aprobado el pressupuesto se redactará un breve contrato que tendrá que ser firmado por cliente y proveerdor con los servicios y clausulas detallados</t>
     </r>
+  </si>
+  <si>
+    <t>Diseño Grafico Web ( CSS/SASS) :</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$USD]\ * #,##0.00_-;\-[$USD]\ * #,##0.00_-;_-[$USD]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$USD]\ * #,##0.00_-;\-[$USD]\ * #,##0.00_-;_-[$USD]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -376,41 +376,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB45F642-6CC1-4E9F-B142-745150B7815B}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,173 +742,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>1800</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="16" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12"/>
       <c r="D16" s="2">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="18" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12"/>
       <c r="D18" s="2">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="20" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="12"/>
       <c r="D20" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B20:C20"/>
@@ -916,6 +911,11 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
